--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diansheng/Codebox/kaggle/titanic/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="6340" windowWidth="20620" windowHeight="11980" tabRatio="500"/>
+    <workbookView xWindow="4720" yWindow="7600" windowWidth="20620" windowHeight="11980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,21 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>model</t>
   </si>
   <si>
-    <t>logistic regression (Pclass, Age)</t>
-  </si>
-  <si>
     <t>train accuracy</t>
   </si>
   <si>
     <t>test_accuracy</t>
   </si>
   <si>
-    <t>logistic regression (all fields execpt name)</t>
+    <t>features</t>
+  </si>
+  <si>
+    <t>pclass, age</t>
+  </si>
+  <si>
+    <t>all fields except name</t>
+  </si>
+  <si>
+    <t>logistic regression</t>
+  </si>
+  <si>
+    <t>k-nearest neighbor classifier</t>
+  </si>
+  <si>
+    <t>k-nearest neighbor</t>
+  </si>
+  <si>
+    <t>normalization</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes [-1,1]</t>
   </si>
 </sst>
 </file>
@@ -133,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -168,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -345,7 +361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,53 +369,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>0.70594999999999997</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>0.66507000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.80359147025813604</v>
-      </c>
-      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.80359000000000003</v>
+      </c>
+      <c r="E3">
         <v>0.75119000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.83950999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.63156999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0.98204000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.74161999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>